--- a/f1 crosses.xlsx
+++ b/f1 crosses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/files/McGill/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E3318E-C627-4442-8FCA-CC5818E741CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81F3BC-B496-BF47-9C79-F444C1CB0730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="250">
   <si>
     <t xml:space="preserve">cross </t>
   </si>
@@ -762,9 +764,6 @@
     <t>CR1702-1 x CR1502-3</t>
   </si>
   <si>
-    <t xml:space="preserve">date: Novermber 19, 2019 </t>
-  </si>
-  <si>
     <t>number of pots: 167</t>
   </si>
   <si>
@@ -778,13 +777,19 @@
   </si>
   <si>
     <t xml:space="preserve">Possible mix up </t>
+  </si>
+  <si>
+    <t>date harvested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date planted: Novermber 19, 2019 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,6 +843,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -865,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -874,6 +886,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1188,28 +1206,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EF527-37B1-8E4B-A459-F4835C1D252D}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" t="s">
         <v>243</v>
       </c>
-      <c r="C1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1223,11 +1244,15 @@
       <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1265,11 @@
       <c r="E4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1254,8 +1282,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="11">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1269,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1296,8 +1327,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="11">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1310,9 +1344,9 @@
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1325,8 +1359,11 @@
       <c r="E10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="13">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
@@ -1339,8 +1376,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>43</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="E12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
@@ -1382,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -1395,8 +1438,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>47</v>
       </c>
@@ -1409,8 +1455,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1424,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1438,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1452,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1465,8 +1514,11 @@
       <c r="E20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -1479,8 +1531,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1508,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -1522,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -1536,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1549,8 +1604,11 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1563,8 +1621,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
@@ -1577,8 +1638,11 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -1591,8 +1655,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -1606,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>63</v>
       </c>
@@ -1620,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -1634,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -1647,8 +1714,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
@@ -1661,8 +1731,11 @@
       <c r="E34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -1675,8 +1748,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
@@ -1689,8 +1765,11 @@
       <c r="E36" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -1703,8 +1782,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1718,7 +1800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
@@ -1731,8 +1813,11 @@
       <c r="E39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -1745,8 +1830,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -1760,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>91</v>
       </c>
@@ -1773,8 +1861,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
@@ -1787,8 +1878,11 @@
       <c r="E43" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>93</v>
       </c>
@@ -1801,8 +1895,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -1815,8 +1912,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
@@ -1829,8 +1929,11 @@
       <c r="E46" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>96</v>
       </c>
@@ -1844,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -1857,8 +1960,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -1871,8 +1977,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>99</v>
       </c>
@@ -1885,8 +1994,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
@@ -1899,8 +2011,11 @@
       <c r="E51" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>101</v>
       </c>
@@ -1914,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>121</v>
       </c>
@@ -1927,8 +2042,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>122</v>
       </c>
@@ -1942,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>123</v>
       </c>
@@ -1956,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>124</v>
       </c>
@@ -1970,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
@@ -1984,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>126</v>
       </c>
@@ -1997,11 +2115,11 @@
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>127</v>
       </c>
@@ -2015,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>128</v>
       </c>
@@ -2029,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>129</v>
       </c>
@@ -2043,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>130</v>
       </c>
@@ -2057,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
@@ -2070,11 +2188,11 @@
       <c r="E63" s="4">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
@@ -2088,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>132</v>
       </c>
@@ -2102,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>133</v>
       </c>
@@ -2116,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>48</v>
       </c>
@@ -2129,11 +2247,11 @@
       <c r="E67" s="4">
         <v>2</v>
       </c>
-      <c r="F67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>134</v>
       </c>
@@ -2146,11 +2264,11 @@
       <c r="E68" s="4">
         <v>2</v>
       </c>
-      <c r="F68" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>135</v>
       </c>
@@ -2164,7 +2282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
@@ -2178,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>161</v>
       </c>
@@ -2192,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>162</v>
       </c>
@@ -2206,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -2220,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>164</v>
       </c>
@@ -2234,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>165</v>
       </c>
@@ -2248,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
@@ -2262,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>167</v>
       </c>
@@ -2276,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>168</v>
       </c>
@@ -2290,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>169</v>
       </c>
@@ -2304,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>170</v>
       </c>
@@ -2317,8 +2435,11 @@
       <c r="E80" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G80" s="11">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>171</v>
       </c>
@@ -2332,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>172</v>
       </c>
@@ -2346,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>173</v>
       </c>
@@ -2360,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>174</v>
       </c>
@@ -2374,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>175</v>
       </c>
@@ -2388,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>176</v>
       </c>
@@ -2401,8 +2522,11 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G86" s="8">
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>177</v>
       </c>
@@ -2416,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>178</v>
       </c>
@@ -2430,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>179</v>
       </c>
@@ -2444,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>180</v>
       </c>
@@ -2458,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>181</v>
       </c>
@@ -2472,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>182</v>
       </c>
@@ -2486,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>183</v>
       </c>
@@ -2500,7 +2624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>195</v>
       </c>
@@ -2514,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>196</v>
       </c>
@@ -2528,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>197</v>
       </c>
@@ -2766,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>231</v>
       </c>
@@ -2780,7 +2904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>232</v>
       </c>
@@ -2794,7 +2918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>233</v>
       </c>
@@ -2808,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>234</v>
       </c>
@@ -2822,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>235</v>
       </c>
@@ -2836,7 +2960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>236</v>
       </c>
@@ -2850,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>129</v>
       </c>
@@ -2864,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>237</v>
       </c>
@@ -2878,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>238</v>
       </c>
@@ -2892,7 +3016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>239</v>
       </c>
@@ -2906,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>240</v>
       </c>
@@ -2920,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>241</v>
       </c>
@@ -2933,8 +3057,11 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G124" s="11">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>242</v>
       </c>
@@ -2948,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E127" s="3">
         <f>SUM(E4:E125)</f>
         <v>167</v>

--- a/f1 crosses.xlsx
+++ b/f1 crosses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/files/McGill/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81F3BC-B496-BF47-9C79-F444C1CB0730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B037590-4D35-8443-9484-1B6664535D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
   </bookViews>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EF527-37B1-8E4B-A459-F4835C1D252D}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1576,6 +1576,9 @@
       <c r="E24">
         <v>1</v>
       </c>
+      <c r="G24" s="11">
+        <v>43860</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1686,6 +1689,9 @@
       <c r="E31">
         <v>1</v>
       </c>
+      <c r="G31" s="11">
+        <v>43860</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -2480,6 +2486,9 @@
       <c r="E83" s="4">
         <v>2</v>
       </c>
+      <c r="G83" s="11">
+        <v>43860</v>
+      </c>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
@@ -2637,6 +2646,9 @@
       <c r="E94">
         <v>1</v>
       </c>
+      <c r="G94" s="11">
+        <v>43860</v>
+      </c>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
@@ -3014,6 +3026,9 @@
       </c>
       <c r="E121" s="4">
         <v>2</v>
+      </c>
+      <c r="G121" s="11">
+        <v>43860</v>
       </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">

--- a/f1 crosses.xlsx
+++ b/f1 crosses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/files/McGill/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B037590-4D35-8443-9484-1B6664535D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75878B74-B2DE-DB42-837F-1599A9E9DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="256">
   <si>
     <t xml:space="preserve">cross </t>
   </si>
@@ -783,6 +783,24 @@
   </si>
   <si>
     <t xml:space="preserve">date planted: Novermber 19, 2019 </t>
+  </si>
+  <si>
+    <t>seeds collected</t>
+  </si>
+  <si>
+    <t>plus 5 that came out of seed coat</t>
+  </si>
+  <si>
+    <t>plus 5 weak / broke out of seed coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus 1 that came out of seed coat </t>
+  </si>
+  <si>
+    <t>plus one that came out of seed coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus one that came out of seed coat </t>
   </si>
 </sst>
 </file>
@@ -1208,17 +1226,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EF527-37B1-8E4B-A459-F4835C1D252D}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9" style="9" customWidth="1"/>
     <col min="9" max="11" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
@@ -1250,7 +1268,9 @@
       <c r="G3" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1267,6 +1287,9 @@
       </c>
       <c r="G4" s="11">
         <v>43858</v>
+      </c>
+      <c r="H4" s="9">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1285,6 +1308,9 @@
       <c r="G5" s="11">
         <v>43853</v>
       </c>
+      <c r="H5" s="9">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1299,6 +1325,12 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="G6" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H6" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
@@ -1330,6 +1362,9 @@
       <c r="G8" s="11">
         <v>43853</v>
       </c>
+      <c r="H8" s="9">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
@@ -1362,6 +1397,9 @@
       <c r="G10" s="13">
         <v>43853</v>
       </c>
+      <c r="H10" s="9">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -1376,8 +1414,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="13">
         <v>43853</v>
+      </c>
+      <c r="H11" s="9">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1393,8 +1434,11 @@
       <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="13">
         <v>43853</v>
+      </c>
+      <c r="H12" s="9">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1410,6 +1454,12 @@
       <c r="E13" s="4">
         <v>2</v>
       </c>
+      <c r="G13" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H13" s="9">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
@@ -1441,6 +1491,9 @@
       <c r="G15" s="11">
         <v>43858</v>
       </c>
+      <c r="H15" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -1458,8 +1511,11 @@
       <c r="G16" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1487,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1500,8 +1556,14 @@
       <c r="E19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H19" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1517,8 +1579,11 @@
       <c r="G20" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -1531,11 +1596,14 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1548,8 +1616,14 @@
       <c r="E22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G22" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H22" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1562,8 +1636,14 @@
       <c r="E23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H23" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -1579,8 +1659,11 @@
       <c r="G24" s="11">
         <v>43860</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -1594,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1610,8 +1693,11 @@
       <c r="G26" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1628,7 +1714,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
@@ -1641,11 +1727,17 @@
       <c r="E28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="4">
+        <v>37</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -1658,11 +1750,14 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -1675,8 +1770,14 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>63</v>
       </c>
@@ -1692,8 +1793,11 @@
       <c r="G31" s="11">
         <v>43860</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -1706,8 +1810,14 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H32" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -1723,8 +1833,11 @@
       <c r="G33" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
@@ -1740,8 +1853,11 @@
       <c r="G34" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -1754,11 +1870,17 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="9">
+        <v>4</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
@@ -1774,8 +1896,11 @@
       <c r="G36" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -1791,8 +1916,11 @@
       <c r="G37" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1806,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
@@ -1819,11 +1947,14 @@
       <c r="E39" s="4">
         <v>2</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -1839,8 +1970,11 @@
       <c r="G40" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -1854,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>91</v>
       </c>
@@ -1867,11 +2001,14 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
@@ -1887,8 +2024,11 @@
       <c r="G43" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>93</v>
       </c>
@@ -1901,11 +2041,17 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="9">
+        <v>13</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -1921,8 +2067,11 @@
       <c r="G45" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
@@ -1938,8 +2087,11 @@
       <c r="G46" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>96</v>
       </c>
@@ -1953,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -1966,11 +2118,14 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -1983,11 +2138,14 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>99</v>
       </c>
@@ -2003,8 +2161,11 @@
       <c r="G50" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
@@ -2020,8 +2181,11 @@
       <c r="G51" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>101</v>
       </c>
@@ -2034,8 +2198,14 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H52" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>121</v>
       </c>
@@ -2051,8 +2221,11 @@
       <c r="G53" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>122</v>
       </c>
@@ -2066,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>123</v>
       </c>
@@ -2079,8 +2252,14 @@
       <c r="E55" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H55" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>124</v>
       </c>
@@ -2094,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
@@ -2108,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>126</v>
       </c>
@@ -2124,8 +2303,14 @@
       <c r="F58" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H58" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>127</v>
       </c>
@@ -2138,8 +2323,14 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>128</v>
       </c>
@@ -2152,8 +2343,14 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G60" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H60" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>129</v>
       </c>
@@ -2166,8 +2363,14 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G61" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H61" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>130</v>
       </c>
@@ -2181,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
@@ -2197,8 +2400,14 @@
       <c r="F63" s="9" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G63" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H63" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
@@ -2211,8 +2420,14 @@
       <c r="E64" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H64" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>132</v>
       </c>
@@ -2225,8 +2440,14 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H65" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>133</v>
       </c>
@@ -2239,8 +2460,11 @@
       <c r="E66" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="11">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>48</v>
       </c>
@@ -2257,7 +2481,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>134</v>
       </c>
@@ -2274,7 +2498,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>135</v>
       </c>
@@ -2287,8 +2511,14 @@
       <c r="E69" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="11">
+        <v>43864</v>
+      </c>
+      <c r="H69" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
@@ -2302,7 +2532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>161</v>
       </c>
@@ -2315,8 +2545,17 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H71" s="9">
+        <v>12</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>162</v>
       </c>
@@ -2329,8 +2568,14 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H72" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -2343,8 +2588,14 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G73" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H73" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>164</v>
       </c>
@@ -2357,8 +2608,14 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G74" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H74" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>165</v>
       </c>
@@ -2371,8 +2628,14 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G75" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H75" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
@@ -2386,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>167</v>
       </c>
@@ -2399,8 +2662,14 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H77" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>168</v>
       </c>
@@ -2414,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>169</v>
       </c>
@@ -2427,8 +2696,14 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H79" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>170</v>
       </c>
@@ -2444,8 +2719,11 @@
       <c r="G80" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>171</v>
       </c>
@@ -2458,8 +2736,14 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H81" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>172</v>
       </c>
@@ -2473,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>173</v>
       </c>
@@ -2489,8 +2773,11 @@
       <c r="G83" s="11">
         <v>43860</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>174</v>
       </c>
@@ -2503,8 +2790,14 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G84" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H84" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>175</v>
       </c>
@@ -2517,8 +2810,14 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G85" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H85" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>176</v>
       </c>
@@ -2531,11 +2830,14 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="13">
         <v>43853</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>177</v>
       </c>
@@ -2548,8 +2850,14 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G87" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H87" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>178</v>
       </c>
@@ -2562,8 +2870,14 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H88" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>179</v>
       </c>
@@ -2577,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>180</v>
       </c>
@@ -2590,8 +2904,14 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G90" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H90" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>181</v>
       </c>
@@ -2604,8 +2924,17 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H91" s="9">
+        <v>13</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>182</v>
       </c>
@@ -2618,8 +2947,14 @@
       <c r="E92" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H92" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>183</v>
       </c>
@@ -2632,8 +2967,14 @@
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="8">
+        <v>43866</v>
+      </c>
+      <c r="H93" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>195</v>
       </c>
@@ -2649,8 +2990,11 @@
       <c r="G94" s="11">
         <v>43860</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>196</v>
       </c>
@@ -2664,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>197</v>
       </c>
@@ -2677,8 +3021,14 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G96" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H96" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>198</v>
       </c>
@@ -2691,8 +3041,14 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G97" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H97" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>199</v>
       </c>
@@ -2706,7 +3062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>200</v>
       </c>
@@ -2719,8 +3075,14 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G99" s="11">
+        <v>43866</v>
+      </c>
+      <c r="H99" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>201</v>
       </c>
@@ -2733,8 +3095,14 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G100" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H100" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>168</v>
       </c>
@@ -2748,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>202</v>
       </c>
@@ -2762,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>203</v>
       </c>
@@ -2775,8 +3143,14 @@
       <c r="E103" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G103" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H103" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>204</v>
       </c>
@@ -2789,8 +3163,14 @@
       <c r="E104" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G104" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H104" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>215</v>
       </c>
@@ -2804,7 +3184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>216</v>
       </c>
@@ -2817,8 +3197,14 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G106" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H106" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>205</v>
       </c>
@@ -2831,8 +3217,14 @@
       <c r="E107" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G107" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H107" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>217</v>
       </c>
@@ -2845,8 +3237,17 @@
       <c r="E108" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G108" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H108" s="4">
+        <v>28</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>218</v>
       </c>
@@ -2859,8 +3260,14 @@
       <c r="E109" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G109" s="11">
+        <v>43865</v>
+      </c>
+      <c r="H109" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>219</v>
       </c>
@@ -2873,8 +3280,14 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G110" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H110" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>220</v>
       </c>
@@ -2887,8 +3300,14 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G111" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H111" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>49</v>
       </c>
@@ -2901,8 +3320,14 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H112" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>231</v>
       </c>
@@ -2915,8 +3340,14 @@
       <c r="E113" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H113" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>232</v>
       </c>
@@ -2930,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>233</v>
       </c>
@@ -2943,8 +3374,14 @@
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H115" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>234</v>
       </c>
@@ -2958,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>235</v>
       </c>
@@ -2972,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>236</v>
       </c>
@@ -2986,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>129</v>
       </c>
@@ -2999,8 +3436,14 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H119" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>237</v>
       </c>
@@ -3014,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>238</v>
       </c>
@@ -3030,8 +3473,14 @@
       <c r="G121" s="11">
         <v>43860</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H121" s="4">
+        <v>32</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>239</v>
       </c>
@@ -3044,8 +3493,14 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G122" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H122" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>240</v>
       </c>
@@ -3059,7 +3514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>241</v>
       </c>
@@ -3075,8 +3530,11 @@
       <c r="G124" s="11">
         <v>43859</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>242</v>
       </c>
@@ -3089,8 +3547,14 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="11">
+        <v>43861</v>
+      </c>
+      <c r="H125" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E127" s="3">
         <f>SUM(E4:E125)</f>
         <v>167</v>

--- a/f1 crosses.xlsx
+++ b/f1 crosses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/files/McGill/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75878B74-B2DE-DB42-837F-1599A9E9DC13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F8AAE6-3638-4E49-863F-832AF36F38F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6EF527-37B1-8E4B-A459-F4835C1D252D}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1329,7 @@
         <v>43866</v>
       </c>
       <c r="H6" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1345,6 +1345,12 @@
       <c r="E7" s="4">
         <v>2</v>
       </c>
+      <c r="G7" s="11">
+        <v>43867</v>
+      </c>
+      <c r="H7" s="4">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -1458,7 +1464,7 @@
         <v>43861</v>
       </c>
       <c r="H13" s="9">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1474,6 +1480,12 @@
       <c r="E14" s="4">
         <v>2</v>
       </c>
+      <c r="G14" s="11">
+        <v>43878</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -1528,6 +1540,12 @@
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="G17" s="11">
+        <v>43867</v>
+      </c>
+      <c r="H17" s="9">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -1542,6 +1560,12 @@
       <c r="E18">
         <v>1</v>
       </c>
+      <c r="G18" s="11">
+        <v>43871</v>
+      </c>
+      <c r="H18" s="9">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
@@ -1620,7 +1644,7 @@
         <v>43861</v>
       </c>
       <c r="H22" s="4">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -1640,7 +1664,7 @@
         <v>43861</v>
       </c>
       <c r="H23" s="4">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -1774,7 +1798,7 @@
         <v>43866</v>
       </c>
       <c r="H30" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
@@ -2202,7 +2226,7 @@
         <v>43866</v>
       </c>
       <c r="H52" s="9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
@@ -2238,6 +2262,12 @@
       <c r="E54">
         <v>1</v>
       </c>
+      <c r="G54" s="11">
+        <v>43871</v>
+      </c>
+      <c r="H54" s="9">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
@@ -2327,7 +2357,7 @@
         <v>43866</v>
       </c>
       <c r="H59" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
@@ -2383,6 +2413,12 @@
       <c r="E62">
         <v>1</v>
       </c>
+      <c r="G62" s="11">
+        <v>43871</v>
+      </c>
+      <c r="H62" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
@@ -2531,6 +2567,12 @@
       <c r="E70" s="4">
         <v>2</v>
       </c>
+      <c r="G70" s="8">
+        <v>43867</v>
+      </c>
+      <c r="H70" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
@@ -2666,7 +2708,7 @@
         <v>43866</v>
       </c>
       <c r="H77" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
@@ -2814,7 +2856,7 @@
         <v>43866</v>
       </c>
       <c r="H85" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
@@ -2951,7 +2993,7 @@
         <v>43865</v>
       </c>
       <c r="H92" s="4">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
@@ -3025,7 +3067,7 @@
         <v>43861</v>
       </c>
       <c r="H96" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.2">
@@ -3079,7 +3121,7 @@
         <v>43866</v>
       </c>
       <c r="H99" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.2">
@@ -3115,6 +3157,12 @@
       <c r="E101" s="4">
         <v>2</v>
       </c>
+      <c r="G101" s="11">
+        <v>43878</v>
+      </c>
+      <c r="H101" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
@@ -3147,7 +3195,7 @@
         <v>43865</v>
       </c>
       <c r="H103" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
@@ -3241,7 +3289,7 @@
         <v>43861</v>
       </c>
       <c r="H108" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I108" s="9" t="s">
         <v>253</v>
@@ -3264,7 +3312,7 @@
         <v>43865</v>
       </c>
       <c r="H109" s="4">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.2">
@@ -3284,7 +3332,7 @@
         <v>43861</v>
       </c>
       <c r="H110" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
@@ -3304,7 +3352,7 @@
         <v>43861</v>
       </c>
       <c r="H111" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
@@ -3324,7 +3372,7 @@
         <v>43861</v>
       </c>
       <c r="H112" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
@@ -3344,7 +3392,7 @@
         <v>43861</v>
       </c>
       <c r="H113" s="4">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.2">
@@ -3408,6 +3456,12 @@
       <c r="E117" s="4">
         <v>2</v>
       </c>
+      <c r="G117" s="11">
+        <v>43878</v>
+      </c>
+      <c r="H117" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
@@ -3440,7 +3494,7 @@
         <v>43861</v>
       </c>
       <c r="H119" s="9">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
@@ -3497,7 +3551,7 @@
         <v>43861</v>
       </c>
       <c r="H122" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.2">

--- a/f1 crosses.xlsx
+++ b/f1 crosses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennylin/files/McGill/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F8AAE6-3638-4E49-863F-832AF36F38F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D15902C-69DB-A84E-84E4-65E51F6DB58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{9A2B242D-1409-9940-9F5C-3ABEDF2F52AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="252">
   <si>
     <t xml:space="preserve">cross </t>
   </si>
@@ -788,26 +788,14 @@
     <t>seeds collected</t>
   </si>
   <si>
-    <t>plus 5 that came out of seed coat</t>
-  </si>
-  <si>
-    <t>plus 5 weak / broke out of seed coat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plus 1 that came out of seed coat </t>
-  </si>
-  <si>
-    <t>plus one that came out of seed coat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plus one that came out of seed coat </t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -868,6 +856,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -895,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +911,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,16 +1233,15 @@
   <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9" style="9" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
@@ -1288,8 +1293,8 @@
       <c r="G4" s="11">
         <v>43858</v>
       </c>
-      <c r="H4" s="9">
-        <v>27</v>
+      <c r="H4" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1403,7 +1408,7 @@
       <c r="G10" s="13">
         <v>43853</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4">
         <v>28</v>
       </c>
     </row>
@@ -1443,7 +1448,7 @@
       <c r="G12" s="13">
         <v>43853</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4">
         <v>39</v>
       </c>
     </row>
@@ -1463,7 +1468,7 @@
       <c r="G13" s="11">
         <v>43861</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="4">
         <v>37</v>
       </c>
     </row>
@@ -1484,7 +1489,7 @@
         <v>43878</v>
       </c>
       <c r="H14" s="4">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1527,7 +1532,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1547,7 +1552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>49</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>52</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
@@ -1664,10 +1669,10 @@
         <v>43861</v>
       </c>
       <c r="H23" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>56</v>
       </c>
@@ -1700,8 +1705,14 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="11">
+        <v>43891</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1721,7 +1732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -1737,8 +1748,11 @@
       <c r="G27" s="11">
         <v>43858</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
@@ -1757,11 +1771,8 @@
       <c r="H28" s="4">
         <v>37</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -1781,7 +1792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>62</v>
       </c>
@@ -1801,7 +1812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>63</v>
       </c>
@@ -1821,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>64</v>
       </c>
@@ -1841,7 +1852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
@@ -1861,7 +1872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
@@ -1881,7 +1892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -1898,13 +1909,10 @@
         <v>43853</v>
       </c>
       <c r="H35" s="9">
-        <v>4</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>85</v>
       </c>
@@ -1924,7 +1932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>86</v>
       </c>
@@ -1944,7 +1952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1957,8 +1965,14 @@
       <c r="E38" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G38" s="11">
+        <v>43884</v>
+      </c>
+      <c r="H38" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
@@ -1978,7 +1992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>89</v>
       </c>
@@ -1998,21 +2012,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D41" s="14">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14">
+        <v>1</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>91</v>
       </c>
@@ -2032,7 +2052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>92</v>
       </c>
@@ -2052,7 +2072,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>93</v>
       </c>
@@ -2071,11 +2091,8 @@
       <c r="H44" s="9">
         <v>13</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>94</v>
       </c>
@@ -2095,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>95</v>
       </c>
@@ -2112,24 +2129,30 @@
         <v>43858</v>
       </c>
       <c r="H46" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D47" s="14">
+        <v>2</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>97</v>
       </c>
@@ -2146,10 +2169,10 @@
         <v>43853</v>
       </c>
       <c r="H48" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -2169,7 +2192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>99</v>
       </c>
@@ -2189,7 +2212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>100</v>
       </c>
@@ -2209,7 +2232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>101</v>
       </c>
@@ -2229,7 +2252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>121</v>
       </c>
@@ -2249,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>122</v>
       </c>
@@ -2266,10 +2289,10 @@
         <v>43871</v>
       </c>
       <c r="H54" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>123</v>
       </c>
@@ -2289,21 +2312,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="56" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D56" s="16">
+        <v>2</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="G56" s="18">
+        <v>43905</v>
+      </c>
+      <c r="H56" s="17">
+        <v>5</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>125</v>
       </c>
@@ -2316,8 +2349,14 @@
       <c r="E57" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G57" s="11">
+        <v>43894</v>
+      </c>
+      <c r="H57" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>126</v>
       </c>
@@ -2340,7 +2379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>127</v>
       </c>
@@ -2360,7 +2399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>128</v>
       </c>
@@ -2380,7 +2419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>129</v>
       </c>
@@ -2400,7 +2439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>130</v>
       </c>
@@ -2417,10 +2456,10 @@
         <v>43871</v>
       </c>
       <c r="H62" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>131</v>
       </c>
@@ -2443,7 +2482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>101</v>
       </c>
@@ -2463,7 +2502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>132</v>
       </c>
@@ -2483,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>133</v>
       </c>
@@ -2497,10 +2536,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="11">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+        <v>43886</v>
+      </c>
+      <c r="H66" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>48</v>
       </c>
@@ -2516,8 +2558,14 @@
       <c r="F67" s="9" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G67" s="11">
+        <v>43896</v>
+      </c>
+      <c r="H67" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>134</v>
       </c>
@@ -2533,8 +2581,14 @@
       <c r="F68" s="9" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G68" s="11">
+        <v>43899</v>
+      </c>
+      <c r="H68" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
         <v>135</v>
       </c>
@@ -2554,7 +2608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>136</v>
       </c>
@@ -2574,7 +2628,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>161</v>
       </c>
@@ -2593,11 +2647,8 @@
       <c r="H71" s="9">
         <v>12</v>
       </c>
-      <c r="I71" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>162</v>
       </c>
@@ -2617,7 +2668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>163</v>
       </c>
@@ -2634,10 +2685,10 @@
         <v>43865</v>
       </c>
       <c r="H73" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>164</v>
       </c>
@@ -2657,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>165</v>
       </c>
@@ -2677,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
         <v>166</v>
       </c>
@@ -2690,8 +2741,14 @@
       <c r="E76" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G76" s="11">
+        <v>43884</v>
+      </c>
+      <c r="H76" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>167</v>
       </c>
@@ -2711,21 +2768,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="78" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D78" s="14">
+        <v>2</v>
+      </c>
+      <c r="E78" s="14">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>169</v>
       </c>
@@ -2745,7 +2808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
         <v>170</v>
       </c>
@@ -2765,7 +2828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>171</v>
       </c>
@@ -2785,21 +2848,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+    <row r="82" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D82" s="14">
+        <v>1</v>
+      </c>
+      <c r="E82" s="14">
+        <v>1</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
         <v>173</v>
       </c>
@@ -2819,7 +2888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>174</v>
       </c>
@@ -2839,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>175</v>
       </c>
@@ -2859,7 +2928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>176</v>
       </c>
@@ -2879,7 +2948,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>177</v>
       </c>
@@ -2899,7 +2968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>178</v>
       </c>
@@ -2919,21 +2988,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="89" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="16">
         <v>3</v>
       </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E89" s="16">
+        <v>1</v>
+      </c>
+      <c r="F89" s="17"/>
+      <c r="G89" s="18">
+        <v>43905</v>
+      </c>
+      <c r="H89" s="17">
+        <v>1</v>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>180</v>
       </c>
@@ -2953,7 +3032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>181</v>
       </c>
@@ -2972,11 +3051,8 @@
       <c r="H91" s="9">
         <v>13</v>
       </c>
-      <c r="I91" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
         <v>182</v>
       </c>
@@ -2996,7 +3072,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>183</v>
       </c>
@@ -3013,10 +3089,10 @@
         <v>43866</v>
       </c>
       <c r="H93" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>195</v>
       </c>
@@ -3036,7 +3112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
         <v>196</v>
       </c>
@@ -3049,8 +3125,14 @@
       <c r="E95" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G95" s="11">
+        <v>43894</v>
+      </c>
+      <c r="H95" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>197</v>
       </c>
@@ -3067,10 +3149,10 @@
         <v>43861</v>
       </c>
       <c r="H96" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>198</v>
       </c>
@@ -3087,10 +3169,10 @@
         <v>43861</v>
       </c>
       <c r="H97" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
         <v>199</v>
       </c>
@@ -3103,8 +3185,14 @@
       <c r="E98" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G98" s="11">
+        <v>43888</v>
+      </c>
+      <c r="H98" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>200</v>
       </c>
@@ -3124,7 +3212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>201</v>
       </c>
@@ -3141,10 +3229,10 @@
         <v>43861</v>
       </c>
       <c r="H100" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
         <v>168</v>
       </c>
@@ -3161,10 +3249,10 @@
         <v>43878</v>
       </c>
       <c r="H101" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>202</v>
       </c>
@@ -3177,8 +3265,14 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G102" s="11">
+        <v>43891</v>
+      </c>
+      <c r="H102" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
         <v>203</v>
       </c>
@@ -3195,10 +3289,10 @@
         <v>43865</v>
       </c>
       <c r="H103" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
         <v>204</v>
       </c>
@@ -3215,10 +3309,10 @@
         <v>43861</v>
       </c>
       <c r="H104" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
         <v>215</v>
       </c>
@@ -3231,8 +3325,14 @@
       <c r="E105" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G105" s="11">
+        <v>43894</v>
+      </c>
+      <c r="H105" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>216</v>
       </c>
@@ -3249,10 +3349,10 @@
         <v>43861</v>
       </c>
       <c r="H106" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
         <v>205</v>
       </c>
@@ -3272,7 +3372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>217</v>
       </c>
@@ -3289,13 +3389,10 @@
         <v>43861</v>
       </c>
       <c r="H108" s="4">
-        <v>29</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>218</v>
       </c>
@@ -3315,7 +3412,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>219</v>
       </c>
@@ -3334,8 +3431,11 @@
       <c r="H110" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>220</v>
       </c>
@@ -3352,10 +3452,10 @@
         <v>43861</v>
       </c>
       <c r="H111" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
         <v>49</v>
       </c>
@@ -3372,10 +3472,10 @@
         <v>43861</v>
       </c>
       <c r="H112" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
         <v>231</v>
       </c>
@@ -3392,10 +3492,10 @@
         <v>43861</v>
       </c>
       <c r="H113" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="4" t="s">
         <v>232</v>
       </c>
@@ -3408,8 +3508,14 @@
       <c r="E114" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G114" s="11">
+        <v>43884</v>
+      </c>
+      <c r="H114" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>233</v>
       </c>
@@ -3426,10 +3532,10 @@
         <v>43861</v>
       </c>
       <c r="H115" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>234</v>
       </c>
@@ -3442,8 +3548,14 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G116" s="11">
+        <v>43899</v>
+      </c>
+      <c r="H116" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
         <v>235</v>
       </c>
@@ -3460,10 +3572,10 @@
         <v>43878</v>
       </c>
       <c r="H117" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>236</v>
       </c>
@@ -3476,8 +3588,14 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G118" s="11">
+        <v>43884</v>
+      </c>
+      <c r="H118" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>129</v>
       </c>
@@ -3494,10 +3612,10 @@
         <v>43861</v>
       </c>
       <c r="H119" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>237</v>
       </c>
@@ -3510,8 +3628,14 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G120" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H120" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
         <v>238</v>
       </c>
@@ -3530,11 +3654,8 @@
       <c r="H121" s="4">
         <v>32</v>
       </c>
-      <c r="I121" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>239</v>
       </c>
@@ -3551,10 +3672,10 @@
         <v>43861</v>
       </c>
       <c r="H122" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
         <v>240</v>
       </c>
@@ -3567,8 +3688,14 @@
       <c r="E123" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G123" s="11">
+        <v>43884</v>
+      </c>
+      <c r="H123" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>241</v>
       </c>
@@ -3588,7 +3715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>242</v>
       </c>
@@ -3605,10 +3732,10 @@
         <v>43861</v>
       </c>
       <c r="H125" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E127" s="3">
         <f>SUM(E4:E125)</f>
         <v>167</v>
